--- a/service-system/target/classes/static/平整度-5车道.xlsx
+++ b/service-system/target/classes/static/平整度-5车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2BD3AA-6D4F-4C2A-A754-29AEFD971DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2BE61B-7964-495C-93DB-5ED5A71063E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="混凝土隧道" sheetId="26" r:id="rId1"/>
@@ -1213,8 +1213,26 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1228,19 +1246,19 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1250,24 +1268,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1622,11 +1622,11 @@
   </sheetPr>
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
     <col min="2" max="3" width="4.625" style="1" customWidth="1"/>
@@ -1643,238 +1643,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="33" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="33" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="33" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="29" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="34"/>
+      <c r="T6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="30" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="30" t="s">
+      <c r="W6" s="32"/>
+      <c r="X6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -1936,13 +1936,13 @@
       <c r="Y7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1973,13 +1973,13 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -2010,13 +2010,13 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -2047,8 +2047,8 @@
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
       <c r="AB10" s="12" t="s">
         <v>33</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -2088,15 +2088,15 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="32"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -2127,15 +2127,15 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" s="32"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -2166,15 +2166,15 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="32"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -2205,15 +2205,15 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="32" t="s">
+      <c r="Z14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="32"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -2244,15 +2244,15 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="32"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -2283,15 +2283,15 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="32" t="s">
+      <c r="Z16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="32"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -2322,15 +2322,15 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA17" s="32"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -2361,13 +2361,13 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -2398,13 +2398,13 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="1:29" ht="18" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -2435,8 +2435,8 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="12" t="s">
         <v>33</v>
       </c>
@@ -2445,7 +2445,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="18" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -2476,15 +2476,15 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="32" t="s">
+      <c r="Z21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="32"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="18" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -2515,15 +2515,15 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="32" t="s">
+      <c r="Z22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="32"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -2554,15 +2554,15 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="32" t="s">
+      <c r="Z23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="32"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -2593,15 +2593,15 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="32" t="s">
+      <c r="Z24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA24" s="32"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -2632,15 +2632,15 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="32" t="s">
+      <c r="Z25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA25" s="32"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="1:29" ht="18" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -2671,15 +2671,15 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="32" t="s">
+      <c r="Z26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="32"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" ht="18" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -2710,15 +2710,15 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="32" t="s">
+      <c r="Z27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA27" s="32"/>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -2749,13 +2749,13 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -2786,13 +2786,13 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -2823,8 +2823,8 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
       <c r="AB30" s="12" t="s">
         <v>33</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -2864,15 +2864,15 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="32" t="s">
+      <c r="Z31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA31" s="32"/>
+      <c r="AA31" s="23"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -2903,15 +2903,15 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="32" t="s">
+      <c r="Z32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA32" s="32"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29" ht="18" customHeight="1">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -2942,15 +2942,15 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="32" t="s">
+      <c r="Z33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA33" s="32"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
     <row r="34" spans="1:29" ht="18" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -2981,15 +2981,15 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="32" t="s">
+      <c r="Z34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA34" s="32"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
     </row>
     <row r="35" spans="1:29" ht="18" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -3020,15 +3020,15 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="32" t="s">
+      <c r="Z35" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA35" s="32"/>
+      <c r="AA35" s="23"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="1:29" ht="18" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -3059,15 +3059,15 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="32" t="s">
+      <c r="Z36" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA36" s="32"/>
+      <c r="AA36" s="23"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="18" customHeight="1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -3098,10 +3098,10 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="32" t="s">
+      <c r="Z37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA37" s="32"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
@@ -3127,6 +3127,36 @@
     <mergeCell ref="Z26:AA26"/>
     <mergeCell ref="Z27:AA27"/>
     <mergeCell ref="A8:A17"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:O2"/>
+    <mergeCell ref="F3:O3"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="P2:X2"/>
+    <mergeCell ref="P3:X3"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="F5:Y5"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="X6:Y6"/>
     <mergeCell ref="F4:O4"/>
     <mergeCell ref="Y4:AC4"/>
     <mergeCell ref="J6:K6"/>
@@ -3136,46 +3166,15 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:O2"/>
-    <mergeCell ref="F3:O3"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="P2:X2"/>
-    <mergeCell ref="P3:X3"/>
     <mergeCell ref="P4:X4"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="F5:Y5"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -3185,11 +3184,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
     <col min="2" max="3" width="4.625" style="1" customWidth="1"/>
@@ -3206,238 +3205,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="33" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="33" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="33" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="29" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="34"/>
+      <c r="T6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="30" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="30" t="s">
+      <c r="W6" s="32"/>
+      <c r="X6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -3499,13 +3498,13 @@
       <c r="Y7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -3536,13 +3535,13 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -3573,13 +3572,13 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -3610,8 +3609,8 @@
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
       <c r="AB10" s="12" t="s">
         <v>33</v>
       </c>
@@ -3620,7 +3619,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -3651,15 +3650,15 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="32"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -3690,15 +3689,15 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" s="32"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -3729,15 +3728,15 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="32"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -3768,15 +3767,15 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="32" t="s">
+      <c r="Z14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="32"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -3807,15 +3806,15 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="32"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -3846,15 +3845,15 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="32" t="s">
+      <c r="Z16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="32"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -3885,15 +3884,15 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA17" s="32"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -3924,13 +3923,13 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -3961,13 +3960,13 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="1:29" ht="18" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -3998,8 +3997,8 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="12" t="s">
         <v>33</v>
       </c>
@@ -4008,7 +4007,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="18" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -4039,15 +4038,15 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="32" t="s">
+      <c r="Z21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="32"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="18" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -4078,15 +4077,15 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="32" t="s">
+      <c r="Z22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="32"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -4117,15 +4116,15 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="32" t="s">
+      <c r="Z23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="32"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -4156,15 +4155,15 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="32" t="s">
+      <c r="Z24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA24" s="32"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -4195,15 +4194,15 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="32" t="s">
+      <c r="Z25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA25" s="32"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="1:29" ht="18" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -4234,15 +4233,15 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="32" t="s">
+      <c r="Z26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="32"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" ht="18" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -4273,15 +4272,15 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="32" t="s">
+      <c r="Z27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA27" s="32"/>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -4312,13 +4311,13 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -4349,13 +4348,13 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -4386,8 +4385,8 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
       <c r="AB30" s="12" t="s">
         <v>33</v>
       </c>
@@ -4396,7 +4395,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -4427,15 +4426,15 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="32" t="s">
+      <c r="Z31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA31" s="32"/>
+      <c r="AA31" s="23"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -4466,15 +4465,15 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="32" t="s">
+      <c r="Z32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA32" s="32"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29" ht="18" customHeight="1">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -4505,15 +4504,15 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="32" t="s">
+      <c r="Z33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA33" s="32"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
     <row r="34" spans="1:29" ht="18" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -4544,15 +4543,15 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="32" t="s">
+      <c r="Z34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA34" s="32"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
     </row>
     <row r="35" spans="1:29" ht="18" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -4583,15 +4582,15 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="32" t="s">
+      <c r="Z35" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA35" s="32"/>
+      <c r="AA35" s="23"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="1:29" ht="18" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -4622,15 +4621,15 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="32" t="s">
+      <c r="Z36" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA36" s="32"/>
+      <c r="AA36" s="23"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="18" customHeight="1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -4661,10 +4660,10 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="32" t="s">
+      <c r="Z37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA37" s="32"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
@@ -4705,22 +4704,22 @@
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="P4:X4"/>
     <mergeCell ref="Y4:AC4"/>
     <mergeCell ref="F5:Y5"/>
     <mergeCell ref="Z5:AC7"/>
     <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:AC1"/>
@@ -4736,9 +4735,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -4749,10 +4747,10 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
     <col min="2" max="3" width="4.625" style="1" customWidth="1"/>
@@ -4769,238 +4767,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="33" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="33" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="33" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="29" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="34"/>
+      <c r="T6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="30" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="30" t="s">
+      <c r="W6" s="32"/>
+      <c r="X6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -5062,13 +5060,13 @@
       <c r="Y7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -5099,13 +5097,13 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -5136,13 +5134,13 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -5173,8 +5171,8 @@
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
       <c r="AB10" s="12" t="s">
         <v>33</v>
       </c>
@@ -5183,7 +5181,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -5214,15 +5212,15 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="32"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -5253,15 +5251,15 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" s="32"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -5292,15 +5290,15 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="32"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -5331,15 +5329,15 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="32" t="s">
+      <c r="Z14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="32"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -5370,15 +5368,15 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="32"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -5409,15 +5407,15 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="32" t="s">
+      <c r="Z16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="32"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -5448,15 +5446,15 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA17" s="32"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -5487,13 +5485,13 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -5524,13 +5522,13 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="1:29" ht="18" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -5561,8 +5559,8 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="12" t="s">
         <v>33</v>
       </c>
@@ -5571,7 +5569,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="18" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -5602,15 +5600,15 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="32" t="s">
+      <c r="Z21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="32"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="18" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -5641,15 +5639,15 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="32" t="s">
+      <c r="Z22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="32"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -5680,15 +5678,15 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="32" t="s">
+      <c r="Z23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="32"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -5719,15 +5717,15 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="32" t="s">
+      <c r="Z24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA24" s="32"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -5758,15 +5756,15 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="32" t="s">
+      <c r="Z25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA25" s="32"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="1:29" ht="18" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -5797,15 +5795,15 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="32" t="s">
+      <c r="Z26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="32"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" ht="18" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -5836,15 +5834,15 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="32" t="s">
+      <c r="Z27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA27" s="32"/>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -5875,13 +5873,13 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -5912,13 +5910,13 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -5949,8 +5947,8 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
       <c r="AB30" s="12" t="s">
         <v>33</v>
       </c>
@@ -5959,7 +5957,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -5990,15 +5988,15 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="32" t="s">
+      <c r="Z31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA31" s="32"/>
+      <c r="AA31" s="23"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -6029,15 +6027,15 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="32" t="s">
+      <c r="Z32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA32" s="32"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29" ht="18" customHeight="1">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -6068,15 +6066,15 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="32" t="s">
+      <c r="Z33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA33" s="32"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
     <row r="34" spans="1:29" ht="18" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -6107,15 +6105,15 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="32" t="s">
+      <c r="Z34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA34" s="32"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
     </row>
     <row r="35" spans="1:29" ht="18" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -6146,15 +6144,15 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="32" t="s">
+      <c r="Z35" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA35" s="32"/>
+      <c r="AA35" s="23"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="1:29" ht="18" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -6185,15 +6183,15 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="32" t="s">
+      <c r="Z36" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA36" s="32"/>
+      <c r="AA36" s="23"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="18" customHeight="1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -6224,10 +6222,10 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="32" t="s">
+      <c r="Z37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA37" s="32"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
@@ -6268,22 +6266,22 @@
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="P4:X4"/>
     <mergeCell ref="Y4:AC4"/>
     <mergeCell ref="F5:Y5"/>
     <mergeCell ref="Z5:AC7"/>
     <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:AC1"/>
@@ -6299,9 +6297,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -6311,11 +6308,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
     <col min="2" max="3" width="4.625" style="1" customWidth="1"/>
@@ -6332,238 +6329,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="33" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="33" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="33" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="29" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="34"/>
+      <c r="T6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="30" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="30" t="s">
+      <c r="W6" s="32"/>
+      <c r="X6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -6625,13 +6622,13 @@
       <c r="Y7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -6662,13 +6659,13 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -6699,13 +6696,13 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -6736,8 +6733,8 @@
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
       <c r="AB10" s="12" t="s">
         <v>33</v>
       </c>
@@ -6746,7 +6743,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -6777,15 +6774,15 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="32"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -6816,15 +6813,15 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" s="32"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -6855,15 +6852,15 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="32"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -6894,15 +6891,15 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="32" t="s">
+      <c r="Z14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="32"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -6933,15 +6930,15 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="32"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -6972,15 +6969,15 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="32" t="s">
+      <c r="Z16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="32"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -7011,15 +7008,15 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA17" s="32"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -7050,13 +7047,13 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -7087,13 +7084,13 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="1:29" ht="18" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -7124,8 +7121,8 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="12" t="s">
         <v>33</v>
       </c>
@@ -7134,7 +7131,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="18" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -7165,15 +7162,15 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="32" t="s">
+      <c r="Z21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="32"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="18" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -7204,15 +7201,15 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="32" t="s">
+      <c r="Z22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="32"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -7243,15 +7240,15 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="32" t="s">
+      <c r="Z23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="32"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -7282,15 +7279,15 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="32" t="s">
+      <c r="Z24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA24" s="32"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -7321,15 +7318,15 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="32" t="s">
+      <c r="Z25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA25" s="32"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="1:29" ht="18" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -7360,15 +7357,15 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="32" t="s">
+      <c r="Z26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="32"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" ht="18" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -7399,15 +7396,15 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="32" t="s">
+      <c r="Z27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA27" s="32"/>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -7438,13 +7435,13 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -7475,13 +7472,13 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -7512,8 +7509,8 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
       <c r="AB30" s="12" t="s">
         <v>33</v>
       </c>
@@ -7522,7 +7519,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -7553,15 +7550,15 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="32" t="s">
+      <c r="Z31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA31" s="32"/>
+      <c r="AA31" s="23"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -7592,15 +7589,15 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="32" t="s">
+      <c r="Z32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA32" s="32"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29" ht="18" customHeight="1">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -7631,15 +7628,15 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="32" t="s">
+      <c r="Z33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA33" s="32"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
     <row r="34" spans="1:29" ht="18" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -7670,15 +7667,15 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="32" t="s">
+      <c r="Z34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA34" s="32"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
     </row>
     <row r="35" spans="1:29" ht="18" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -7709,15 +7706,15 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="32" t="s">
+      <c r="Z35" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA35" s="32"/>
+      <c r="AA35" s="23"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="1:29" ht="18" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -7748,15 +7745,15 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="32" t="s">
+      <c r="Z36" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA36" s="32"/>
+      <c r="AA36" s="23"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="18" customHeight="1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -7787,10 +7784,10 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="32" t="s">
+      <c r="Z37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA37" s="32"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
@@ -7831,22 +7828,22 @@
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="P4:X4"/>
     <mergeCell ref="Y4:AC4"/>
     <mergeCell ref="F5:Y5"/>
     <mergeCell ref="Z5:AC7"/>
     <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:AC1"/>
@@ -7862,9 +7859,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -7875,10 +7871,10 @@
   <dimension ref="A1:AD37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
     <col min="2" max="3" width="4.625" style="1" customWidth="1"/>
@@ -7895,238 +7891,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="33" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="33" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="33" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="29" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="34"/>
+      <c r="T6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="30" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="30" t="s">
+      <c r="W6" s="32"/>
+      <c r="X6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -8188,13 +8184,13 @@
       <c r="Y7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -8225,13 +8221,13 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -8262,13 +8258,13 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -8299,8 +8295,8 @@
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
       <c r="AB10" s="12" t="s">
         <v>33</v>
       </c>
@@ -8309,7 +8305,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -8340,15 +8336,15 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="32"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -8379,15 +8375,15 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" s="32"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -8418,15 +8414,15 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="32"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -8457,15 +8453,15 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="32" t="s">
+      <c r="Z14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="32"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -8496,15 +8492,15 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="32"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -8535,15 +8531,15 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="32" t="s">
+      <c r="Z16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="32"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -8574,15 +8570,15 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA17" s="32"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -8613,13 +8609,13 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -8650,13 +8646,13 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="1:29" ht="18" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -8687,8 +8683,8 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="12" t="s">
         <v>33</v>
       </c>
@@ -8697,7 +8693,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="18" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -8728,15 +8724,15 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="32" t="s">
+      <c r="Z21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="32"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="18" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -8767,15 +8763,15 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="32" t="s">
+      <c r="Z22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="32"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -8806,15 +8802,15 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="32" t="s">
+      <c r="Z23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="32"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -8845,15 +8841,15 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="32" t="s">
+      <c r="Z24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA24" s="32"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -8884,15 +8880,15 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="32" t="s">
+      <c r="Z25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA25" s="32"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="1:29" ht="18" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -8923,15 +8919,15 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="32" t="s">
+      <c r="Z26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="32"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" ht="18" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -8962,15 +8958,15 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="32" t="s">
+      <c r="Z27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA27" s="32"/>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -9001,13 +8997,13 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -9038,13 +9034,13 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -9075,8 +9071,8 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
       <c r="AB30" s="12" t="s">
         <v>33</v>
       </c>
@@ -9085,7 +9081,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -9116,15 +9112,15 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="32" t="s">
+      <c r="Z31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA31" s="32"/>
+      <c r="AA31" s="23"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -9155,15 +9151,15 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="32" t="s">
+      <c r="Z32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA32" s="32"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29" ht="18" customHeight="1">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -9194,15 +9190,15 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="32" t="s">
+      <c r="Z33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA33" s="32"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
     <row r="34" spans="1:29" ht="18" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -9233,15 +9229,15 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="32" t="s">
+      <c r="Z34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA34" s="32"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
     </row>
     <row r="35" spans="1:29" ht="18" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -9272,15 +9268,15 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="32" t="s">
+      <c r="Z35" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA35" s="32"/>
+      <c r="AA35" s="23"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="1:29" ht="18" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -9311,15 +9307,15 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="32" t="s">
+      <c r="Z36" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA36" s="32"/>
+      <c r="AA36" s="23"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="18" customHeight="1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -9350,10 +9346,10 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="32" t="s">
+      <c r="Z37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA37" s="32"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
@@ -9394,22 +9390,22 @@
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="P4:X4"/>
     <mergeCell ref="Y4:AC4"/>
     <mergeCell ref="F5:Y5"/>
     <mergeCell ref="Z5:AC7"/>
     <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:AC1"/>
@@ -9425,9 +9421,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -9437,11 +9432,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.625" style="7" customWidth="1"/>
     <col min="2" max="3" width="4.625" style="1" customWidth="1"/>
@@ -9458,238 +9453,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="38.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="33" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="33" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="33" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="29" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
     </row>
     <row r="6" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="34"/>
+      <c r="L6" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="32"/>
+      <c r="P6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="34"/>
+      <c r="T6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6" s="30" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="31"/>
-      <c r="X6" s="30" t="s">
+      <c r="W6" s="32"/>
+      <c r="X6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14" t="s">
         <v>1</v>
@@ -9751,13 +9746,13 @@
       <c r="Y7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
@@ -9788,13 +9783,13 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4">
         <v>100</v>
       </c>
@@ -9825,13 +9820,13 @@
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="17"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4">
         <v>200</v>
       </c>
@@ -9862,8 +9857,8 @@
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
       <c r="AB10" s="12" t="s">
         <v>33</v>
       </c>
@@ -9872,7 +9867,7 @@
       </c>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="17"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4">
         <v>300</v>
       </c>
@@ -9903,15 +9898,15 @@
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="32" t="s">
+      <c r="Z11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="32"/>
+      <c r="AA11" s="23"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="17"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4">
         <v>400</v>
       </c>
@@ -9942,15 +9937,15 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="32" t="s">
+      <c r="Z12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA12" s="32"/>
+      <c r="AA12" s="23"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4">
         <v>500</v>
       </c>
@@ -9981,15 +9976,15 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="32" t="s">
+      <c r="Z13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" s="32"/>
+      <c r="AA13" s="23"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4">
         <v>600</v>
       </c>
@@ -10020,15 +10015,15 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="32" t="s">
+      <c r="Z14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA14" s="32"/>
+      <c r="AA14" s="23"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4">
         <v>700</v>
       </c>
@@ -10059,15 +10054,15 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="32" t="s">
+      <c r="Z15" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA15" s="32"/>
+      <c r="AA15" s="23"/>
       <c r="AB15" s="14"/>
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4">
         <v>800</v>
       </c>
@@ -10098,15 +10093,15 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="32" t="s">
+      <c r="Z16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA16" s="32"/>
+      <c r="AA16" s="23"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4">
         <v>900</v>
       </c>
@@ -10137,15 +10132,15 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="32" t="s">
+      <c r="Z17" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA17" s="32"/>
+      <c r="AA17" s="23"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="17"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -10176,13 +10171,13 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="17"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4">
         <v>100</v>
       </c>
@@ -10213,13 +10208,13 @@
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
     </row>
     <row r="20" spans="1:29" ht="18" customHeight="1">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4">
         <v>200</v>
       </c>
@@ -10250,8 +10245,8 @@
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
       <c r="AB20" s="12" t="s">
         <v>33</v>
       </c>
@@ -10260,7 +10255,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" ht="18" customHeight="1">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4">
         <v>300</v>
       </c>
@@ -10291,15 +10286,15 @@
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="32" t="s">
+      <c r="Z21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA21" s="32"/>
+      <c r="AA21" s="23"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
     </row>
     <row r="22" spans="1:29" ht="18" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4">
         <v>400</v>
       </c>
@@ -10330,15 +10325,15 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="32" t="s">
+      <c r="Z22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="32"/>
+      <c r="AA22" s="23"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="17"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4">
         <v>500</v>
       </c>
@@ -10369,15 +10364,15 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="32" t="s">
+      <c r="Z23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="32"/>
+      <c r="AA23" s="23"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="14"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="17"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4">
         <v>600</v>
       </c>
@@ -10408,15 +10403,15 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="32" t="s">
+      <c r="Z24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA24" s="32"/>
+      <c r="AA24" s="23"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="14"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="17"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4">
         <v>700</v>
       </c>
@@ -10447,15 +10442,15 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="32" t="s">
+      <c r="Z25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA25" s="32"/>
+      <c r="AA25" s="23"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
     <row r="26" spans="1:29" ht="18" customHeight="1">
-      <c r="A26" s="17"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4">
         <v>800</v>
       </c>
@@ -10486,15 +10481,15 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="32" t="s">
+      <c r="Z26" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA26" s="32"/>
+      <c r="AA26" s="23"/>
       <c r="AB26" s="14"/>
       <c r="AC26" s="14"/>
     </row>
     <row r="27" spans="1:29" ht="18" customHeight="1">
-      <c r="A27" s="17"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4">
         <v>900</v>
       </c>
@@ -10525,15 +10520,15 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="32" t="s">
+      <c r="Z27" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA27" s="32"/>
+      <c r="AA27" s="23"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="17"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
@@ -10564,13 +10559,13 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4">
         <v>100</v>
       </c>
@@ -10601,13 +10596,13 @@
       <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="17"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4">
         <v>200</v>
       </c>
@@ -10638,8 +10633,8 @@
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
       <c r="AB30" s="12" t="s">
         <v>33</v>
       </c>
@@ -10648,7 +10643,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4">
         <v>300</v>
       </c>
@@ -10679,15 +10674,15 @@
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="32" t="s">
+      <c r="Z31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA31" s="32"/>
+      <c r="AA31" s="23"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4">
         <v>400</v>
       </c>
@@ -10718,15 +10713,15 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="32" t="s">
+      <c r="Z32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AA32" s="32"/>
+      <c r="AA32" s="23"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="1:29" ht="18" customHeight="1">
-      <c r="A33" s="17"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4">
         <v>500</v>
       </c>
@@ -10757,15 +10752,15 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="32" t="s">
+      <c r="Z33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA33" s="32"/>
+      <c r="AA33" s="23"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="14"/>
     </row>
     <row r="34" spans="1:29" ht="18" customHeight="1">
-      <c r="A34" s="17"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4">
         <v>600</v>
       </c>
@@ -10796,15 +10791,15 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="32" t="s">
+      <c r="Z34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA34" s="32"/>
+      <c r="AA34" s="23"/>
       <c r="AB34" s="14"/>
       <c r="AC34" s="14"/>
     </row>
     <row r="35" spans="1:29" ht="18" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="4">
         <v>700</v>
       </c>
@@ -10835,15 +10830,15 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="32" t="s">
+      <c r="Z35" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AA35" s="32"/>
+      <c r="AA35" s="23"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="14"/>
     </row>
     <row r="36" spans="1:29" ht="18" customHeight="1">
-      <c r="A36" s="17"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="4">
         <v>800</v>
       </c>
@@ -10874,15 +10869,15 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="32" t="s">
+      <c r="Z36" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AA36" s="32"/>
+      <c r="AA36" s="23"/>
       <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
     </row>
     <row r="37" spans="1:29" ht="18" customHeight="1">
-      <c r="A37" s="17"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="4">
         <v>900</v>
       </c>
@@ -10913,10 +10908,10 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="32" t="s">
+      <c r="Z37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AA37" s="32"/>
+      <c r="AA37" s="23"/>
       <c r="AB37" s="6"/>
       <c r="AC37" s="6"/>
     </row>
@@ -10957,22 +10952,22 @@
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:D7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F4:O4"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="P4:X4"/>
     <mergeCell ref="Y4:AC4"/>
     <mergeCell ref="F5:Y5"/>
     <mergeCell ref="Z5:AC7"/>
     <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:AC1"/>
@@ -10988,9 +10983,8 @@
   <pageMargins left="0.82677165354330717" right="0.82677165354330717" top="0.78740157480314965" bottom="0.98425196850393704" header="0.59055118110236227" footer="0.59055118110236227"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交建公路工程试验检测有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
+    <oddHeader xml:space="preserve">&amp;C&amp;11陕西交控工程技术有限公司&amp;R&amp;11第&amp;"Times New Roman,常规"&amp;P&amp;"宋体,常规"页共&amp;"Times New Roman,常规"&amp;N&amp;"宋体,常规"页
 &amp;"Times New Roman,常规" </oddHeader>
-    <oddFooter xml:space="preserve">&amp;C检测：                                                                                                 复核：     </oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
